--- a/downloads/MSA-List.xlsx
+++ b/downloads/MSA-List.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmvolker/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82EE5E47-A664-2342-A068-8FF364E5FBD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A83633C-FC80-3241-B65E-3C1D9DAE9A10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="1900" windowWidth="27640" windowHeight="16100" xr2:uid="{6FDBE05E-D63E-A543-80DB-3BBB6605C91A}"/>
+    <workbookView xWindow="1160" yWindow="1000" windowWidth="27640" windowHeight="16100" xr2:uid="{6FDBE05E-D63E-A543-80DB-3BBB6605C91A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -245,25 +240,6 @@
   <dxfs count="4">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -319,6 +295,25 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -333,11 +328,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A14EC5EB-A18B-164F-BDF0-B9975200FA5B}" name="Table1" displayName="Table1" ref="A1:B27" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A14EC5EB-A18B-164F-BDF0-B9975200FA5B}" name="Table1" displayName="Table1" ref="A1:B27" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:B27" xr:uid="{9386C107-EF1B-2341-B382-B3973D069FEF}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BC186468-14D0-1645-BB89-F134B4B82455}" name="MSA" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{7DEAA482-2E3D-2E49-93A3-F08F172A7C86}" name="Counties" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{BC186468-14D0-1645-BB89-F134B4B82455}" name="MSA" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{7DEAA482-2E3D-2E49-93A3-F08F172A7C86}" name="Counties" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -643,7 +638,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
